--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_2_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2287606.285568051</v>
+        <v>2473639.9723043</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631046</v>
+        <v>12244790.98632947</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.366480916</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6036866.794520157</v>
+        <v>6077299.603832845</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +665,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>228.7241491148383</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>28.11631013281968</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>28.11631013281968</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>24.76484596498758</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>28.11631013281968</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>24.76484596498756</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>28.11631013281968</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>28.11631013281968</v>
+        <v>68.02985031917481</v>
       </c>
       <c r="V4" t="n">
-        <v>28.11631013281968</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>114.808767100203</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>292.9082206543439</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>292.9082206543439</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>68.60526130391757</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>292.9082206543439</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
         <v>93.11323406457203</v>
@@ -1032,10 +1032,10 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>170.4006239373615</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
         <v>161.8425727710037</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>34.02264277857941</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>183.955393296462</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>209.2290058573855</v>
+        <v>270.0135262251624</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1148,7 +1148,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1306,10 +1306,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>260.4446813871638</v>
       </c>
       <c r="W10" t="n">
-        <v>208.1278415418843</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628861</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E11" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>260.3417921967419</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.54790254396343</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162745</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018496</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W11" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026556</v>
       </c>
       <c r="X11" t="n">
-        <v>16.67094946337521</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7164064809814</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005334</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9982212447114</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5952539392216</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>130.0464974647466</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8104032629636</v>
+        <v>135.2275531329951</v>
       </c>
       <c r="I13" t="n">
-        <v>64.22298003316324</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573504</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.8857944620929</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3464501740878</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>162.6700366484909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628861</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E14" t="n">
-        <v>30.78532107306646</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.3417921967419</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396343</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162745</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018496</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809814</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459096</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005334</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447114</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392216</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647466</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316324</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.8857944620929</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740878</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>158.4374491560637</v>
       </c>
       <c r="X16" t="n">
-        <v>190.7492782457234</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831918</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628861</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.71717045362</v>
       </c>
       <c r="F17" t="n">
-        <v>29.94109061193893</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>260.3417921967419</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.54790254396343</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162745</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018496</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809814</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005334</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447114</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392216</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647466</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.22298003316324</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.8857944620929</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>191.5169749534297</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740878</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>69.37788311233518</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831918</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628861</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.71717045362</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>260.3417921967419</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.54790254396343</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162745</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018496</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W20" t="n">
-        <v>1.495586822102723</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809814</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005334</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447114</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>108.7338525045209</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647466</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316324</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573504</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.8857944620929</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>114.7423370331728</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740878</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831918</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628861</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.3417921967419</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162745</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018496</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809814</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005334</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447114</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392216</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647466</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>92.96932646399769</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316324</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>133.8857944620929</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740878</v>
+        <v>222.7323691218201</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,19 +2716,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>14.26000286531842</v>
+        <v>96.44420510686392</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2770,10 +2770,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2953,19 +2953,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>98.15366458399306</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>12.78161372714479</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523054</v>
+        <v>178.1668213893231</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5782361172335</v>
+        <v>160.1553498542513</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718574</v>
+        <v>108.1577655104101</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.4685551105455</v>
+        <v>160.0456688475633</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448716</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705895</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334168</v>
+        <v>158.3362093704346</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2313529237194</v>
+        <v>230.8084666607371</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7080026420591</v>
+        <v>267.2851163790769</v>
       </c>
       <c r="V34" t="n">
-        <v>243.2197513454117</v>
+        <v>268.7968650824295</v>
       </c>
       <c r="W34" t="n">
-        <v>236.4292784165725</v>
+        <v>262.0063921535902</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4636562160133</v>
+        <v>230.0407699530311</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.4047392545157</v>
+        <v>213.9818529915335</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295219</v>
       </c>
       <c r="T35" t="n">
         <v>183.0417138731735</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C37" t="n">
         <v>134.5782361172335</v>
@@ -3430,7 +3430,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F37" t="n">
         <v>134.4685551105455</v>
@@ -3442,7 +3442,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448715</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.64901981295135</v>
+        <v>67.64901981295137</v>
       </c>
       <c r="T38" t="n">
         <v>183.0417138731735</v>
@@ -3667,7 +3667,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E40" t="n">
-        <v>128.8715224160357</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F40" t="n">
         <v>134.4685551105455</v>
@@ -3679,7 +3679,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448714</v>
+        <v>63.09628120448715</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705894</v>
+        <v>10.89362580705895</v>
       </c>
       <c r="S40" t="n">
         <v>132.7590956334168</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.9752792759751</v>
+        <v>379.9752792759757</v>
       </c>
       <c r="C41" t="n">
         <v>386.9571213141932</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295135</v>
+        <v>67.64901981295137</v>
       </c>
       <c r="T41" t="n">
         <v>183.0417138731735</v>
@@ -3916,7 +3916,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448714</v>
+        <v>63.09628120448715</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705894</v>
+        <v>10.89362580705895</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>775.5724121743564</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>752.7120862280606</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>733.4598694534649</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>307.4829296013224</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772885</v>
+        <v>76.44843554593018</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625575</v>
+        <v>76.14977717578287</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625575</v>
+        <v>76.14977717578287</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>403.8563647361496</v>
       </c>
       <c r="K2" t="n">
-        <v>30.08445184211706</v>
+        <v>403.8563647361496</v>
       </c>
       <c r="L2" t="n">
-        <v>57.91959887360855</v>
+        <v>914.3610754869188</v>
       </c>
       <c r="M2" t="n">
-        <v>85.75474590510004</v>
+        <v>1424.865786237688</v>
       </c>
       <c r="N2" t="n">
-        <v>85.75474590510004</v>
+        <v>1424.865786237688</v>
       </c>
       <c r="O2" t="n">
-        <v>85.75474590510004</v>
+        <v>1424.865786237688</v>
       </c>
       <c r="P2" t="n">
-        <v>112.4652405312787</v>
+        <v>1935.370496988457</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>1958.278001835844</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>1958.278001835844</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>1958.278001835844</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1600.788586962094</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1204.397237262441</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>792.677238430188</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>791.3803724254824</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.04993134157444</v>
+        <v>608.3763969507094</v>
       </c>
       <c r="C3" t="n">
-        <v>59.04993134157444</v>
+        <v>490.8704934682141</v>
       </c>
       <c r="D3" t="n">
-        <v>59.04993134157444</v>
+        <v>387.0305349834991</v>
       </c>
       <c r="E3" t="n">
-        <v>30.6496180761</v>
+        <v>282.3286012564363</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>94.6289991569445</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="J3" t="n">
-        <v>28.95979943680427</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="K3" t="n">
-        <v>28.95979943680427</v>
+        <v>551.7576166700233</v>
       </c>
       <c r="L3" t="n">
-        <v>56.79494646829576</v>
+        <v>1062.262327420792</v>
       </c>
       <c r="M3" t="n">
-        <v>84.63009349978725</v>
+        <v>1572.767038171562</v>
       </c>
       <c r="N3" t="n">
-        <v>84.63009349978725</v>
+        <v>1572.767038171562</v>
       </c>
       <c r="O3" t="n">
-        <v>84.63009349978725</v>
+        <v>1572.767038171562</v>
       </c>
       <c r="P3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1768.616289061019</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>87.45024460704886</v>
+        <v>1236.9950184176</v>
       </c>
       <c r="W3" t="n">
-        <v>87.45024460704886</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>87.45024460704886</v>
+        <v>876.9962950174797</v>
       </c>
       <c r="Y3" t="n">
-        <v>59.04993134157444</v>
+        <v>737.3034063707721</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.26430073485544</v>
+        <v>1024.665460183767</v>
       </c>
       <c r="C4" t="n">
-        <v>27.26430073485544</v>
+        <v>852.692897062683</v>
       </c>
       <c r="D4" t="n">
-        <v>27.26430073485544</v>
+        <v>689.3761241894537</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>523.1679183423072</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>351.3061441168676</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>185.0491744110997</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>98.7442341434121</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>166.2511979795704</v>
       </c>
       <c r="L4" t="n">
-        <v>28.95979943680427</v>
+        <v>520.9405192739912</v>
       </c>
       <c r="M4" t="n">
-        <v>28.95979943680427</v>
+        <v>912.1263142442419</v>
       </c>
       <c r="N4" t="n">
-        <v>56.79494646829576</v>
+        <v>1289.617825120278</v>
       </c>
       <c r="O4" t="n">
-        <v>84.63009349978725</v>
+        <v>1645.045953800041</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>1935.645165721942</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="S4" t="n">
-        <v>84.0649272658043</v>
+        <v>1892.510248481839</v>
       </c>
       <c r="T4" t="n">
-        <v>84.0649272658043</v>
+        <v>1892.510248481839</v>
       </c>
       <c r="U4" t="n">
-        <v>55.66461400032987</v>
+        <v>1823.79322795742</v>
       </c>
       <c r="V4" t="n">
-        <v>27.26430073485544</v>
+        <v>1542.081760565449</v>
       </c>
       <c r="W4" t="n">
-        <v>27.26430073485544</v>
+        <v>1267.229356737962</v>
       </c>
       <c r="X4" t="n">
-        <v>27.26430073485544</v>
+        <v>1024.665460183767</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.26430073485544</v>
+        <v>1024.665460183767</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>754.293872684842</v>
+        <v>638.1652587604842</v>
       </c>
       <c r="C5" t="n">
-        <v>731.4335467385462</v>
+        <v>615.3049328141884</v>
       </c>
       <c r="D5" t="n">
-        <v>615.4650951221795</v>
+        <v>596.0527160395927</v>
       </c>
       <c r="E5" t="n">
-        <v>319.5982055723371</v>
+        <v>574.1161802278543</v>
       </c>
       <c r="F5" t="n">
-        <v>23.73131602249482</v>
+        <v>553.0324024576586</v>
       </c>
       <c r="G5" t="n">
-        <v>23.43265765234751</v>
+        <v>148.6933400471072</v>
       </c>
       <c r="H5" t="n">
-        <v>23.43265765234751</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>23.43265765234751</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>23.43265765234751</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>23.43265765234751</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>313.411796100148</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>313.411796100148</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N5" t="n">
-        <v>603.3909345479484</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>603.3909345479484</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>881.6537441695751</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1171.632882617376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.632882617376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1067.265588490516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1067.265588490516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1067.265588490516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1067.265588490516</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>1067.265588490516</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X5" t="n">
-        <v>771.3986989406736</v>
+        <v>1463.350893097124</v>
       </c>
       <c r="Y5" t="n">
-        <v>770.101832935968</v>
+        <v>1058.013623052014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288.3684261549291</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>170.8625226724339</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>170.8625226724339</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>170.8625226724339</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>170.8625226724339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80875089003793</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>23.43265765234751</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>23.43265765234751</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>23.43265765234751</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>313.411796100148</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>603.3909345479484</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>603.3909345479484</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>603.3909345479484</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>603.3909345479484</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>893.3700729957488</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1089.613572532672</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.632882617376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1090.30863517863</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>948.4286994763083</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>763.6605033959451</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>763.6605033959451</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>591.5386610349739</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>428.0613148016367</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>288.3684261549291</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.6896273581154</v>
+        <v>918.4808166588637</v>
       </c>
       <c r="C7" t="n">
-        <v>189.6896273581154</v>
+        <v>746.5082535377796</v>
       </c>
       <c r="D7" t="n">
-        <v>189.6896273581154</v>
+        <v>583.1914806645503</v>
       </c>
       <c r="E7" t="n">
-        <v>189.6896273581154</v>
+        <v>416.9832748174039</v>
       </c>
       <c r="F7" t="n">
-        <v>189.6896273581154</v>
+        <v>245.1215005919643</v>
       </c>
       <c r="G7" t="n">
-        <v>23.43265765234751</v>
+        <v>78.86453088619643</v>
       </c>
       <c r="H7" t="n">
-        <v>23.43265765234751</v>
+        <v>78.86453088619643</v>
       </c>
       <c r="I7" t="n">
-        <v>23.43265765234751</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>80.92398587650553</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6953370332122</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>464.6744754810127</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>464.6744754810127</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>754.6536139288131</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>754.6536139288131</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.632752376614</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.632882617376</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1124.594269304549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>1124.594269304549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1124.594269304549</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>844.4098208048531</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>658.5962922225682</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>658.5962922225682</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>416.0323956683733</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.6896273581154</v>
+        <v>918.4808166588637</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>608.6939898724443</v>
+        <v>379.8103493568968</v>
       </c>
       <c r="C8" t="n">
-        <v>397.351559713469</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>378.0993429388733</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>356.162807127135</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>335.0790293569393</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1313.087264683184</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>1389.514143537154</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N8" t="n">
-        <v>1389.514143537154</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>1389.514143537154</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.879624209084</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y8" t="n">
-        <v>1028.542354163974</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>950.4838058662884</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>1407.269712569019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>1845.599623041337</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1845.599623041337</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>976.296846493218</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>804.324283372134</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>641.0075104989047</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>474.7993046517582</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>302.9375304263186</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1799.725677711293</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1635.369480069736</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1392.805583515542</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>1166.462815205284</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F11" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>347.2448971338085</v>
+        <v>435.0679631883223</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>145.4635716678803</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>860.9718796433793</v>
+        <v>533.9931985757465</v>
       </c>
       <c r="L11" t="n">
-        <v>1790.596927262656</v>
+        <v>1463.618246195023</v>
       </c>
       <c r="M11" t="n">
-        <v>2794.883028681714</v>
+        <v>2467.904347614081</v>
       </c>
       <c r="N11" t="n">
-        <v>2794.883028681714</v>
+        <v>3444.155406100782</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.027678832526</v>
+        <v>4289.300056251594</v>
       </c>
       <c r="P11" t="n">
-        <v>3640.027678832526</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="Q11" t="n">
-        <v>4096.11315833671</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T11" t="n">
-        <v>3958.170370649442</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U11" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V11" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W11" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X11" t="n">
-        <v>3033.785967549739</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020626</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>921.0721979472784</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.763303406384</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N12" t="n">
-        <v>1176.763303406384</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1176.763303406384</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625979</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.1764135929072</v>
+        <v>843.1025083526772</v>
       </c>
       <c r="C13" t="n">
-        <v>786.1007217283521</v>
+        <v>671.1299452315932</v>
       </c>
       <c r="D13" t="n">
-        <v>657.6808201116517</v>
+        <v>671.1299452315932</v>
       </c>
       <c r="E13" t="n">
-        <v>526.369485521034</v>
+        <v>504.9217393844468</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4045825521233</v>
+        <v>504.9217393844468</v>
       </c>
       <c r="G13" t="n">
-        <v>258.0444841028842</v>
+        <v>338.6647696786789</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1450868675674</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>175.9671416070546</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>436.6971663314155</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443603</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027695</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.925887145058</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.483410627487</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.19583338432</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V13" t="n">
-        <v>1690.381237248877</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.425704677919</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X13" t="n">
-        <v>1242.758679380253</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y13" t="n">
-        <v>1078.445511048444</v>
+        <v>1033.268477064743</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1918.410291042733</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1526.406432312561</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.01068275409</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E14" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F14" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988734</v>
       </c>
       <c r="G14" t="n">
-        <v>347.2448971338085</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>84.27338986437223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27338986437223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L14" t="n">
-        <v>1013.898437483649</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>1936.188305076916</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>2912.439363563617</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.584013714429</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P14" t="n">
-        <v>3757.584013714429</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q14" t="n">
-        <v>4213.669493218612</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T14" t="n">
-        <v>3958.170370649444</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U14" t="n">
-        <v>3734.712332502385</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V14" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W14" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X14" t="n">
-        <v>2673.802182866314</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2303.361784077733</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020626</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>84.27338986437223</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>674.7583164327118</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L15" t="n">
-        <v>1511.557124515618</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M15" t="n">
-        <v>1892.961020444882</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N15" t="n">
-        <v>1892.961020444882</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O15" t="n">
-        <v>1892.961020444882</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1892.961020444882</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625979</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.1764135929072</v>
+        <v>769.9464360574115</v>
       </c>
       <c r="C16" t="n">
-        <v>786.100721728352</v>
+        <v>769.9464360574115</v>
       </c>
       <c r="D16" t="n">
-        <v>657.6808201116517</v>
+        <v>606.6296631841822</v>
       </c>
       <c r="E16" t="n">
-        <v>526.369485521034</v>
+        <v>440.4214573370357</v>
       </c>
       <c r="F16" t="n">
-        <v>389.4045825521232</v>
+        <v>268.5596831115963</v>
       </c>
       <c r="G16" t="n">
-        <v>258.0444841028842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1450868675674</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299864</v>
       </c>
       <c r="K16" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358236</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443599</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S16" t="n">
-        <v>2403.067629201356</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T16" t="n">
-        <v>2194.625152683785</v>
+        <v>1869.241345563993</v>
       </c>
       <c r="U16" t="n">
-        <v>1949.337575440617</v>
+        <v>1589.056897064297</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.522979305175</v>
+        <v>1589.056897064297</v>
       </c>
       <c r="W16" t="n">
-        <v>1462.567446734217</v>
+        <v>1429.01906963393</v>
       </c>
       <c r="X16" t="n">
-        <v>1269.891408102173</v>
+        <v>1186.455173079735</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.445511048444</v>
+        <v>960.1124047694768</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1918.410291042733</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C17" t="n">
-        <v>1526.406432312562</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1138.010682754091</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E17" t="n">
-        <v>746.9306141584764</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2448971338085</v>
+        <v>435.0679631883223</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437225</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>84.27338986437223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>799.7816978398713</v>
+        <v>1082.193820490621</v>
       </c>
       <c r="L17" t="n">
-        <v>1227.909025918988</v>
+        <v>2011.818868109898</v>
       </c>
       <c r="M17" t="n">
-        <v>1227.909025918988</v>
+        <v>2011.818868109898</v>
       </c>
       <c r="N17" t="n">
-        <v>2204.160084405689</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="O17" t="n">
-        <v>3049.304734556501</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P17" t="n">
-        <v>3757.584013714429</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q17" t="n">
-        <v>4213.669493218612</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T17" t="n">
-        <v>3958.170370649442</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U17" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V17" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W17" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X17" t="n">
-        <v>2673.802182866315</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y17" t="n">
-        <v>2303.361784077734</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020626</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>84.27338986437223</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>84.27338986437223</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L18" t="n">
-        <v>84.27338986437223</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M18" t="n">
-        <v>1127.156589435979</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N18" t="n">
-        <v>1127.156589435979</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O18" t="n">
-        <v>1892.961020444882</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P18" t="n">
-        <v>1892.961020444882</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625979</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.1764135929071</v>
+        <v>545.9056190120758</v>
       </c>
       <c r="C19" t="n">
-        <v>786.1007217283521</v>
+        <v>373.933055890992</v>
       </c>
       <c r="D19" t="n">
-        <v>657.6808201116517</v>
+        <v>373.933055890992</v>
       </c>
       <c r="E19" t="n">
-        <v>526.369485521034</v>
+        <v>373.933055890992</v>
       </c>
       <c r="F19" t="n">
-        <v>389.4045825521233</v>
+        <v>202.0712816655524</v>
       </c>
       <c r="G19" t="n">
-        <v>258.0444841028842</v>
+        <v>202.0712816655524</v>
       </c>
       <c r="H19" t="n">
-        <v>149.1450868675674</v>
+        <v>202.0712816655524</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443599</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R19" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S19" t="n">
-        <v>2403.067629201355</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T19" t="n">
-        <v>2209.616139349406</v>
+        <v>1869.241345563993</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.32856210624</v>
+        <v>1589.056897064297</v>
       </c>
       <c r="V19" t="n">
-        <v>1717.513965970797</v>
+        <v>1307.345429672326</v>
       </c>
       <c r="W19" t="n">
-        <v>1477.558433399839</v>
+        <v>1032.493025844839</v>
       </c>
       <c r="X19" t="n">
-        <v>1269.891408102173</v>
+        <v>962.4143560343994</v>
       </c>
       <c r="Y19" t="n">
-        <v>1078.445511048444</v>
+        <v>736.0715877241414</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C20" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F20" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2448971338085</v>
+        <v>435.0679631883223</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1162.385156656767</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2166.671258075825</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2912.439363563617</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.584013714429</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P20" t="n">
-        <v>3757.584013714429</v>
+        <v>4659.050190787241</v>
       </c>
       <c r="Q20" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T20" t="n">
-        <v>3958.170370649442</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U20" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V20" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W20" t="n">
-        <v>3410.609095125463</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X20" t="n">
-        <v>3033.785967549739</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y20" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020626</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>84.27338986437223</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>84.27338986437223</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>921.0721979472784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>1892.961020444882</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>1892.961020444882</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>1892.961020444882</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P21" t="n">
-        <v>1892.961020444882</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1892.961020444882</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625979</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>896.0436848709872</v>
+        <v>775.710793331349</v>
       </c>
       <c r="C22" t="n">
-        <v>758.9679930064322</v>
+        <v>603.7382302102651</v>
       </c>
       <c r="D22" t="n">
-        <v>630.5480913897317</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E22" t="n">
-        <v>499.2367567991141</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F22" t="n">
-        <v>389.4045825521233</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>258.0444841028842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>149.1450868675674</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>825.5889111443599</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q22" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.925887145058</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2182.483410627487</v>
+        <v>1996.679342799534</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.19583338432</v>
+        <v>1716.494894299838</v>
       </c>
       <c r="V22" t="n">
-        <v>1690.381237248877</v>
+        <v>1434.783426907867</v>
       </c>
       <c r="W22" t="n">
-        <v>1450.425704677919</v>
+        <v>1434.783426907867</v>
       </c>
       <c r="X22" t="n">
-        <v>1242.758679380253</v>
+        <v>1192.219530353673</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.312782326524</v>
+        <v>965.8767620434146</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.61999771505438</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.356812126726</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2099.356812126726</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>2571.490476939796</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3416.635127090608</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4124.914406248536</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4580.999885752719</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.999885752719</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>91.61999771505438</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>91.61999771505438</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>928.4188057979605</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>915.5320347779673</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C25" t="n">
-        <v>778.4563429134121</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D25" t="n">
-        <v>650.0364412967117</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>518.7251067060943</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>381.7602037371835</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G25" t="n">
-        <v>250.4001052879445</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820974</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9355189950421</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076664</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R25" t="n">
-        <v>2545.652413276374</v>
+        <v>2235.677127506131</v>
       </c>
       <c r="S25" t="n">
-        <v>2410.414237052038</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2201.971760534467</v>
+        <v>1822.202732251166</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.6841832913</v>
+        <v>1542.01828375147</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.869587155857</v>
+        <v>1317.036092719329</v>
       </c>
       <c r="W25" t="n">
-        <v>1469.914054584899</v>
+        <v>1042.183688891841</v>
       </c>
       <c r="X25" t="n">
-        <v>1262.247029287233</v>
+        <v>799.6197923376471</v>
       </c>
       <c r="Y25" t="n">
-        <v>1070.801132233504</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="26">
@@ -6233,13 +6233,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P26" t="n">
         <v>4541.493855905342</v>
@@ -6312,13 +6312,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976741</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J28" t="n">
         <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,25 +6409,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2268.311697520656</v>
+        <v>2185.297351822125</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.972349746556</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U28" t="n">
-        <v>1744.78790124686</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1744.78790124686</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X28" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746758</v>
       </c>
       <c r="Y28" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4639.71451561294</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5095.799995117123</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6537,31 +6537,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.7597400424195</v>
+        <v>373.4203922683197</v>
       </c>
       <c r="C31" t="n">
-        <v>444.7871769213355</v>
+        <v>201.4478291472357</v>
       </c>
       <c r="D31" t="n">
-        <v>281.4704040481062</v>
+        <v>201.4478291472357</v>
       </c>
       <c r="E31" t="n">
-        <v>281.4704040481062</v>
+        <v>201.4478291472357</v>
       </c>
       <c r="F31" t="n">
-        <v>281.4704040481062</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G31" t="n">
-        <v>115.2134343423384</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058286</v>
@@ -6649,22 +6649,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1832.396244838396</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1550.684777446425</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.832373618938</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1033.268477064743</v>
+        <v>789.9291292906432</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.9257087544852</v>
+        <v>563.5863609803853</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210686</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815408</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1169.406598900327</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2099.031646519604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>3014.848732523857</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3991.099791010558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3991.099791010558</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>3991.099791010558</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4447.185270514741</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793897</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>98.74147506984471</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>370.4389643494358</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>960.9238909177753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>1797.722699000682</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1817.963152603739</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1817.963152603739</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O33" t="n">
-        <v>1817.963152603739</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1817.963152603739</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619904</v>
+        <v>534.9883540242374</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223607</v>
+        <v>373.2152733633775</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305856</v>
+        <v>263.965005171044</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648933</v>
+        <v>263.965005171044</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209079</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965941</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862027</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793286</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910042</v>
+        <v>169.7905543892522</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557547</v>
+        <v>406.314668354355</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090889</v>
+        <v>771.0005024080414</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238253</v>
+        <v>1172.182810137558</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473202</v>
+        <v>1559.670833772859</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>1925.095475211888</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2225.691199893055</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2362.687842893082</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2362.687842893082</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2202.752277872441</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>1969.612412558565</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1699.627446519094</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1428.115461587347</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1163.462540220084</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>931.0981261261128</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>714.9548402760789</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815411</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
@@ -6944,25 +6944,25 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>2555.232196583721</v>
+        <v>2437.675861701819</v>
       </c>
       <c r="N35" t="n">
-        <v>2555.232196583721</v>
+        <v>2437.675861701819</v>
       </c>
       <c r="O35" t="n">
-        <v>3400.376846734534</v>
+        <v>3282.820511852631</v>
       </c>
       <c r="P35" t="n">
-        <v>4108.656125892461</v>
+        <v>3991.099791010559</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.185270514742</v>
       </c>
       <c r="R35" t="n">
         <v>4564.741605396644</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151239</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T35" t="n">
         <v>4311.518642077325</v>
@@ -6971,7 +6971,7 @@
         <v>4089.198683555192</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W35" t="n">
         <v>3407.387820744696</v>
@@ -7023,16 +7023,16 @@
         <v>91.29483210793289</v>
       </c>
       <c r="M36" t="n">
-        <v>1147.281370083978</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="N36" t="n">
-        <v>1899.982462688443</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="O36" t="n">
-        <v>1899.982462688443</v>
+        <v>719.6392687871653</v>
       </c>
       <c r="P36" t="n">
-        <v>1899.982462688443</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="Q36" t="n">
         <v>1899.982462688443</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619904</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C37" t="n">
         <v>786.2936862223607</v>
@@ -7096,16 +7096,16 @@
         <v>184.1040156910042</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557547</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090889</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N37" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O37" t="n">
         <v>2066.015649511878</v>
@@ -7114,13 +7114,13 @@
         <v>2391.932716792692</v>
       </c>
       <c r="Q37" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392368</v>
       </c>
       <c r="R37" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S37" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T37" t="n">
         <v>2201.842546468938</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220167</v>
       </c>
       <c r="C38" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D38" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181376</v>
       </c>
       <c r="E38" t="n">
         <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815419</v>
       </c>
       <c r="G38" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524447</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793288</v>
+        <v>91.2948321079337</v>
       </c>
       <c r="I38" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J38" t="n">
         <v>453.8982909248284</v>
@@ -7178,46 +7178,46 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L38" t="n">
-        <v>2099.031646519604</v>
+        <v>1302.283351946872</v>
       </c>
       <c r="M38" t="n">
-        <v>3103.317747938662</v>
+        <v>2306.56945336593</v>
       </c>
       <c r="N38" t="n">
-        <v>4079.568806425363</v>
+        <v>3282.820511852631</v>
       </c>
       <c r="O38" t="n">
-        <v>4108.65612589246</v>
+        <v>3282.820511852631</v>
       </c>
       <c r="P38" t="n">
-        <v>4108.65612589246</v>
+        <v>3991.099791010559</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.185270514742</v>
       </c>
       <c r="R38" t="n">
         <v>4564.741605396644</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151239</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077326</v>
       </c>
       <c r="U38" t="n">
         <v>4089.198683555192</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W38" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744697</v>
       </c>
       <c r="X38" t="n">
         <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H39" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="I39" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J39" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="K39" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="L39" t="n">
-        <v>127.7982076738995</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="M39" t="n">
-        <v>1183.784745649945</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="N39" t="n">
-        <v>1183.784745649945</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="O39" t="n">
-        <v>1183.784745649945</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="P39" t="n">
-        <v>1899.982462688443</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="Q39" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R39" t="n">
         <v>1899.982462688443</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619907</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223609</v>
+        <v>786.2936862223606</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305857</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E40" t="n">
         <v>528.8386092648932</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H40" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J40" t="n">
         <v>184.1040156910042</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090889</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238253</v>
@@ -7354,10 +7354,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T40" t="n">
         <v>2201.842546468938</v>
@@ -7366,7 +7366,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W40" t="n">
         <v>1473.199079394147</v>
@@ -7397,16 +7397,16 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815411</v>
       </c>
       <c r="G41" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="I41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J41" t="n">
         <v>453.8982909248284</v>
@@ -7418,43 +7418,43 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>2555.23219658372</v>
+        <v>2437.675861701819</v>
       </c>
       <c r="N41" t="n">
-        <v>2555.23219658372</v>
+        <v>2437.675861701819</v>
       </c>
       <c r="O41" t="n">
-        <v>3400.376846734533</v>
+        <v>3282.820511852631</v>
       </c>
       <c r="P41" t="n">
-        <v>4108.65612589246</v>
+        <v>3991.099791010559</v>
       </c>
       <c r="Q41" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.185270514742</v>
       </c>
       <c r="R41" t="n">
         <v>4564.741605396644</v>
       </c>
       <c r="S41" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151239</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077326</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555193</v>
       </c>
       <c r="V41" t="n">
         <v>3767.744219562896</v>
       </c>
       <c r="W41" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744697</v>
       </c>
       <c r="X41" t="n">
         <v>3031.702772793898</v>
       </c>
       <c r="Y41" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H42" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="I42" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J42" t="n">
-        <v>91.29483210793288</v>
+        <v>362.992321387524</v>
       </c>
       <c r="K42" t="n">
-        <v>91.29483210793288</v>
+        <v>362.992321387524</v>
       </c>
       <c r="L42" t="n">
-        <v>91.29483210793288</v>
+        <v>362.992321387524</v>
       </c>
       <c r="M42" t="n">
-        <v>91.29483210793288</v>
+        <v>362.992321387524</v>
       </c>
       <c r="N42" t="n">
-        <v>1180.609778580803</v>
+        <v>362.992321387524</v>
       </c>
       <c r="O42" t="n">
-        <v>1899.982462688443</v>
+        <v>1252.473599398996</v>
       </c>
       <c r="P42" t="n">
         <v>1899.982462688443</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619898</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223601</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305852</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E43" t="n">
-        <v>528.838609264893</v>
+        <v>528.8386092648931</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209076</v>
+        <v>393.0117859209077</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965941</v>
+        <v>262.789767096594</v>
       </c>
       <c r="H43" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862026</v>
       </c>
       <c r="I43" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J43" t="n">
         <v>184.1040156910041</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557544</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090882</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M43" t="n">
         <v>1262.460299238252</v>
@@ -7582,13 +7582,13 @@
         <v>1675.269665473201</v>
       </c>
       <c r="O43" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P43" t="n">
-        <v>2391.932716792691</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q43" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R43" t="n">
         <v>2543.247039960994</v>
@@ -7597,7 +7597,7 @@
         <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U43" t="n">
         <v>1957.693048850696</v>
@@ -7609,10 +7609,10 @@
         <v>1473.199079394146</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.670133721405</v>
+        <v>1266.670133721406</v>
       </c>
       <c r="Y43" t="n">
-        <v>1076.362316292601</v>
+        <v>1076.362316292602</v>
       </c>
     </row>
     <row r="44">
@@ -7640,34 +7640,34 @@
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J44" t="n">
-        <v>91.29483210793288</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K44" t="n">
-        <v>91.29483210793288</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L44" t="n">
-        <v>1020.919879727209</v>
+        <v>1461.424803215118</v>
       </c>
       <c r="M44" t="n">
-        <v>2025.205981146268</v>
+        <v>1461.424803215118</v>
       </c>
       <c r="N44" t="n">
-        <v>3001.457039632969</v>
+        <v>2437.675861701819</v>
       </c>
       <c r="O44" t="n">
-        <v>3846.601689783781</v>
+        <v>3282.820511852631</v>
       </c>
       <c r="P44" t="n">
-        <v>4447.185270514741</v>
+        <v>3991.099791010559</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.185270514741</v>
+        <v>4447.185270514742</v>
       </c>
       <c r="R44" t="n">
         <v>4564.741605396644</v>
@@ -7682,7 +7682,7 @@
         <v>4089.198683555192</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W44" t="n">
         <v>3407.387820744696</v>
@@ -7719,28 +7719,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="I45" t="n">
-        <v>98.74147506984471</v>
+        <v>98.74147506984472</v>
       </c>
       <c r="J45" t="n">
-        <v>370.4389643494358</v>
+        <v>98.74147506984472</v>
       </c>
       <c r="K45" t="n">
-        <v>960.9238909177753</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="L45" t="n">
-        <v>1797.722699000682</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="M45" t="n">
-        <v>1899.982462688443</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="N45" t="n">
-        <v>1899.982462688443</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="O45" t="n">
-        <v>1899.982462688443</v>
+        <v>1183.784745649945</v>
       </c>
       <c r="P45" t="n">
         <v>1899.982462688443</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619907</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C46" t="n">
-        <v>786.293686222361</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305858</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648935</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209082</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965945</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H46" t="n">
-        <v>155.028449486203</v>
+        <v>155.0284494862028</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J46" t="n">
         <v>184.1040156910042</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090887</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M46" t="n">
         <v>1262.460299238253</v>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>63.88091092762902</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>66.42835256544261</v>
+        <v>553.9733664232989</v>
       </c>
       <c r="M2" t="n">
-        <v>65.54757303225151</v>
+        <v>553.0925868901078</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7994,10 +7994,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>64.55565941243201</v>
+        <v>553.2366858009073</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>164.6850776088877</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8055,16 +8055,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>47.59141193553404</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>538.0605578240094</v>
       </c>
       <c r="L3" t="n">
-        <v>50.63139684704925</v>
+        <v>538.1764107049056</v>
       </c>
       <c r="M3" t="n">
-        <v>51.21309064514766</v>
+        <v>538.758104503004</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8073,13 +8073,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>301.7440718393766</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>89.15350681246787</v>
       </c>
       <c r="L4" t="n">
-        <v>48.89905749790193</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>50.49711079080617</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8216,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>331.2202630869668</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>330.1878434887899</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>318.6489068825815</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.0328952589419</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8292,31 +8292,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>315.3074544876772</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>315.4233073685734</v>
+        <v>462.5747547263935</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>314.6790618591726</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>220.9727953969821</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,22 +8374,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>115.683190974638</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>314.8269805500451</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>313.6571216299443</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2890213123304</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>114.6301304286942</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8532,25 +8532,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>464.100513539115</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>268.8396510847011</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8626,10 +8626,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.22822393357444</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>105.5494758988725</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
@@ -8699,16 +8699,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8775,16 +8775,16 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>104.5829721389275</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
@@ -8933,22 +8933,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>969.0371897613174</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885269</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>383.4213315400418</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>659.2874778330895</v>
       </c>
       <c r="L17" t="n">
-        <v>470.7638889771852</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>37.43126289943181</v>
@@ -9185,7 +9185,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1076.514153816981</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>796.7117190241447</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9404,19 +9404,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>790.5807394887811</v>
+        <v>882.1738474735934</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9477,16 +9477,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9495,13 +9495,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>514.1823145648198</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9659,7 +9659,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1004.802661823039</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9881,16 +9881,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9960,16 +9960,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>226.402256022168</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10118,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10127,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>54.56363491934598</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
@@ -10200,19 +10200,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>942.3124318571035</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>196.7283130837754</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,19 +10352,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>962.4990265400912</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10422,31 +10422,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>43.54168314167935</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10592,7 +10592,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>498.239899327833</v>
+        <v>379.4961267198508</v>
       </c>
       <c r="N35" t="n">
         <v>37.27962283444602</v>
@@ -10607,7 +10607,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,19 +10671,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10826,7 +10826,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>172.53098490388</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10835,16 +10835,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>66.77209013086969</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,25 +10905,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>59.38718324550895</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>498.2398993278321</v>
+        <v>379.4961267198508</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
@@ -11081,7 +11081,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11148,13 +11148,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>749.810964578424</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>675.8201980628559</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>333.2799255788761</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11312,10 +11312,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>644.2254433566559</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11373,25 +11373,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>126.389471106026</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>522.7257725623842</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>356.3839468365915</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>7.130752673932051</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.86140143470089</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>356.383946836591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573504</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.6664306331483</v>
       </c>
       <c r="X16" t="n">
-        <v>14.84107679896596</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>356.3839468365913</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573504</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>14.8410767989658</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>170.7603744763177</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>356.3839468365903</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>26.86140143470072</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>126.1636172631861</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>14.84107679896591</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573504</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>56.16198359623127</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24649,7 +24649,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>154.1736941407381</v>
+        <v>71.98949189919257</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919212</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>129.5766920797824</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>43.428351998465</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.4486361530531</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>154.4969123730883</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>132.2608181713053</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.67339494150492</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>36.47073954407673</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.147998202491763e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>512413.5893386952</v>
+        <v>526050.6136078819</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>520067.4128856486</v>
+        <v>526882.6609832102</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>524937.6735533184</v>
+        <v>526882.6609832102</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>509331.7353551509</v>
+        <v>520408.8295412345</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>509331.735355151</v>
+        <v>520408.8295412346</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>509331.735355151</v>
+        <v>520408.8295412345</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>509331.735355151</v>
+        <v>520408.8295412345</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>535601.0847907438</v>
+        <v>520408.8295412345</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>536101.1198807707</v>
+        <v>525464.2053889245</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509637.3345097679</v>
+        <v>509637.3345097677</v>
       </c>
       <c r="C2" t="n">
-        <v>509637.3345097676</v>
+        <v>509637.3345097677</v>
       </c>
       <c r="D2" t="n">
-        <v>509637.3345097676</v>
+        <v>509637.3345097677</v>
       </c>
       <c r="E2" t="n">
-        <v>484251.10318247</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="F2" t="n">
-        <v>484251.10318247</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="G2" t="n">
-        <v>484251.1031824701</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="H2" t="n">
-        <v>484251.1031824701</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="I2" t="n">
-        <v>509073.2450796387</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="J2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="K2" t="n">
         <v>491776.6027452664</v>
       </c>
       <c r="L2" t="n">
-        <v>509637.3345097675</v>
+        <v>496831.9785929566</v>
       </c>
       <c r="M2" t="n">
         <v>509637.3345097676</v>
       </c>
       <c r="N2" t="n">
+        <v>509637.3345097676</v>
+      </c>
+      <c r="O2" t="n">
         <v>509637.3345097675</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>509637.3345097676</v>
-      </c>
-      <c r="P2" t="n">
-        <v>509637.3345097675</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>172809.9698797273</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.50417943945</v>
+        <v>13105.84347019884</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447377</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596185</v>
+        <v>215739.3565566404</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826556</v>
+        <v>1.813903054426191e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.81965085294</v>
+        <v>134919.6914542164</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710364</v>
+        <v>10440.51617310193</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.46410370047</v>
+        <v>8077.990108497484</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819145</v>
+        <v>166235.4618077719</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>303732.4552423392</v>
+        <v>165205.1596637869</v>
       </c>
       <c r="C4" t="n">
-        <v>225983.566931669</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>60686.3797744556</v>
+        <v>29432.28705591158</v>
       </c>
       <c r="F4" t="n">
-        <v>60686.3797744556</v>
+        <v>29432.28705591154</v>
       </c>
       <c r="G4" t="n">
-        <v>60686.3797744556</v>
+        <v>29432.28705591158</v>
       </c>
       <c r="H4" t="n">
-        <v>60686.37977445559</v>
+        <v>29432.28705591158</v>
       </c>
       <c r="I4" t="n">
-        <v>62177.0035390326</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
         <v>29432.2870559115</v>
@@ -26445,16 +26445,16 @@
         <v>29432.2870559115</v>
       </c>
       <c r="L4" t="n">
-        <v>63198.41887740587</v>
+        <v>32754.86370165155</v>
       </c>
       <c r="M4" t="n">
-        <v>63198.41887740586</v>
+        <v>63198.41887740584</v>
       </c>
       <c r="N4" t="n">
-        <v>63198.41887740589</v>
+        <v>63198.41887740584</v>
       </c>
       <c r="O4" t="n">
-        <v>63198.41887740589</v>
+        <v>63198.41887740588</v>
       </c>
       <c r="P4" t="n">
         <v>63198.41887740587</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64979.80849863309</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.4198157841</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.6058824098</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
@@ -26497,19 +26497,19 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482542</v>
+        <v>78598.94787646878</v>
       </c>
       <c r="M5" t="n">
         <v>72383.20046482544</v>
       </c>
       <c r="N5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482544</v>
       </c>
       <c r="O5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482544</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482544</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161145.3854107123</v>
+        <v>106642.3964676204</v>
       </c>
       <c r="C6" t="n">
-        <v>146670.843582875</v>
+        <v>272332.1641964053</v>
       </c>
       <c r="D6" t="n">
-        <v>219107.4472399692</v>
+        <v>285438.0076666041</v>
       </c>
       <c r="E6" t="n">
-        <v>152210.8260325046</v>
+        <v>168803.8662821004</v>
       </c>
       <c r="F6" t="n">
-        <v>356612.539492123</v>
+        <v>384543.2228387409</v>
       </c>
       <c r="G6" t="n">
-        <v>356612.5394921231</v>
+        <v>384543.2228387409</v>
       </c>
       <c r="H6" t="n">
-        <v>356612.5394921231</v>
+        <v>384543.2228387409</v>
       </c>
       <c r="I6" t="n">
-        <v>349940.4193299308</v>
+        <v>384543.2228387406</v>
       </c>
       <c r="J6" t="n">
-        <v>342299.4338500723</v>
+        <v>249623.5313845244</v>
       </c>
       <c r="K6" t="n">
-        <v>316445.2890738216</v>
+        <v>374102.706665639</v>
       </c>
       <c r="L6" t="n">
-        <v>337697.2510638357</v>
+        <v>377363.5901751478</v>
       </c>
       <c r="M6" t="n">
-        <v>226522.5941856218</v>
+        <v>207820.2533597644</v>
       </c>
       <c r="N6" t="n">
+        <v>374055.7151675363</v>
+      </c>
+      <c r="O6" t="n">
         <v>374055.7151675362</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>374055.7151675363</v>
-      </c>
-      <c r="P6" t="n">
-        <v>374055.7151675362</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="M2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N2" t="n">
         <v>35.67460137263964</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9082206543439</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26817,7 +26817,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.57711373701778</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215242</v>
+        <v>40.56648912491812</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059903</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.556104457262</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.83259813352674</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215242</v>
+        <v>40.56648912491812</v>
       </c>
       <c r="L4" t="n">
-        <v>30.89316888229439</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443191</v>
+        <v>584.9575882335663</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215242</v>
+        <v>40.56648912491812</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059903</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>192.1487908776554</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27436,13 +27436,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75.53860425697246</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>64.5930618811052</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>178.1585615071388</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.1796496274208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,22 +27537,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.7812778236874</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27585,22 +27585,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>140.3173868732368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>249.2662938818791</v>
+        <v>209.3527536955239</v>
       </c>
       <c r="V4" t="n">
-        <v>250.7780425852317</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>304.2509275066467</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>128.8089497992771</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>127.9647193381498</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>226.2844334367879</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27673,16 +27673,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>114.6945781895863</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27752,10 +27752,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>24.15553945775349</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>64.74823979854737</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.93895942158935</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>213.4027168294473</v>
+        <v>152.6181964616704</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27907,13 +27907,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>18.44967133088761</v>
       </c>
       <c r="W10" t="n">
-        <v>63.97603824732778</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>34.54790254396354</v>
+        <v>9.697685318346741e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.54790254396354</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="F17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>34.54790254396354</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="F20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.54790254396354</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562185</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.6746013726388</v>
       </c>
       <c r="T35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="J37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="L37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="R37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="S37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396269</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="M2" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>26.98029760220071</v>
+        <v>515.661323990676</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>128.5604030042897</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>515.661323990676</v>
       </c>
       <c r="L3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="M3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,13 +34793,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>279.9732306345479</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>68.18885235975587</v>
       </c>
       <c r="L4" t="n">
-        <v>26.98029760220071</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>28.11631013281968</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>292.9082206543439</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>292.9082206543439</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>281.0735450723502</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.9082206543439</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>292.9082206543439</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>292.9082206543439</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>292.9082206543439</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.2257571080036</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>94.71853652192597</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>292.9082206543439</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>292.9082206543439</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>292.9082206543439</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>77.19886752926243</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35346,10 +35346,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>61.80826444798792</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>69.78487510406315</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
@@ -35419,16 +35419,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35495,16 +35495,16 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523427</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,22 +35653,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>931.6059268618857</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540808</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523427</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>623.5228770382802</v>
       </c>
       <c r="L17" t="n">
-        <v>432.4518465445623</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1053.417373304653</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>773.5398293019225</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523427</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,19 +36124,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>753.301116654335</v>
+        <v>844.8942246391473</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523427</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>476.9026917303738</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36379,7 +36379,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>981.7058813107108</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523427</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,16 +36601,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36680,16 +36680,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>205.0592278086264</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36838,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36847,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>19.53098502454951</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>920.9694036435619</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>174.9574718789467</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,19 +37072,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>925.0677636406595</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>20.44490262935137</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391035</v>
+        <v>68.16953634689258</v>
       </c>
       <c r="K34" t="n">
-        <v>264.4903601664146</v>
+        <v>238.9132464293968</v>
       </c>
       <c r="L34" t="n">
-        <v>393.9466430841758</v>
+        <v>368.369529347158</v>
       </c>
       <c r="M34" t="n">
-        <v>430.8117680092566</v>
+        <v>405.2346542722389</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9791578130798</v>
+        <v>391.4020440760621</v>
       </c>
       <c r="O34" t="n">
-        <v>394.6929131703801</v>
+        <v>369.1157994333623</v>
       </c>
       <c r="P34" t="n">
-        <v>329.2091588695093</v>
+        <v>303.6320451324916</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9575612117931</v>
+        <v>138.3804474747753</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>460.8086364284011</v>
+        <v>342.064863820419</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.74665008391035</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K37" t="n">
         <v>264.4903601664146</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-8.182007260267821e-13</v>
       </c>
       <c r="J38" t="n">
         <v>366.2661200170662</v>
@@ -37546,7 +37546,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>134.2189424712571</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37555,16 +37555,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>29.38113077484559</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>36.87209653127939</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>460.8086364284002</v>
+        <v>342.064863820419</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,13 +37868,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>726.6390748562018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>654.0493568580272</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>294.9678831462531</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38032,10 +38032,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>606.6500815464246</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38093,25 +38093,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>103.292690593698</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>499.553882840162</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
